--- a/表格转换分析.xlsx
+++ b/表格转换分析.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanyi/Desktop/Python/Financial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D8101EF-B5AE-DB42-A0BF-CBC01DB1FEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED05738-AC73-6842-B13E-DB4DB01C5D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8900" yWindow="2440" windowWidth="28240" windowHeight="17440" xr2:uid="{75F62985-7FCA-E342-AA8F-2E9828DD4D0C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23800" windowHeight="19460" activeTab="1" xr2:uid="{75F62985-7FCA-E342-AA8F-2E9828DD4D0C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="储蓄卡账单" sheetId="1" r:id="rId1"/>
+    <sheet name="信用卡账单" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="51">
   <si>
     <t>记账日</t>
   </si>
@@ -137,6 +138,57 @@
   </si>
   <si>
     <t>日期&amp;时间&amp;金额</t>
+  </si>
+  <si>
+    <t>交易日</t>
+  </si>
+  <si>
+    <t>入账日</t>
+  </si>
+  <si>
+    <t>信用卡卡号</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>入账币种</t>
+  </si>
+  <si>
+    <t>入账金额</t>
+  </si>
+  <si>
+    <t>交易描述</t>
+  </si>
+  <si>
+    <t>'6227080542757113</t>
+  </si>
+  <si>
+    <t>支付宝-吕强</t>
+  </si>
+  <si>
+    <t>网银在线-京东商城业务</t>
+  </si>
+  <si>
+    <t>退货退税</t>
+  </si>
+  <si>
+    <t>支付宝-南昌蓝之润科技有限公司</t>
+  </si>
+  <si>
+    <t>支付宝-西安捷宸贸易有限公司</t>
+  </si>
+  <si>
+    <t>支付宝-成都红旗连锁股份有限公司</t>
+  </si>
+  <si>
+    <t>支付宝-川西优选</t>
+  </si>
+  <si>
+    <t>建设银行信用卡</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -182,28 +234,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -528,303 +573,1113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B29D878-31B3-B14E-98DA-1D1EA7AE13C1}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="13" max="13" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
+      <c r="C1">
         <v>1</v>
       </c>
       <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
         <v>2</v>
       </c>
-      <c r="G1">
+      <c r="I1">
         <v>3</v>
       </c>
-      <c r="H1">
+      <c r="J1">
         <v>4</v>
       </c>
-      <c r="I1">
+      <c r="K1">
         <v>5</v>
       </c>
-      <c r="J1">
+      <c r="L1">
         <v>6</v>
       </c>
-      <c r="K1">
+      <c r="M1">
         <v>7</v>
       </c>
-      <c r="L1">
+      <c r="N1">
         <v>8</v>
       </c>
-      <c r="M1">
+      <c r="O1">
         <v>9</v>
       </c>
-      <c r="N1">
+      <c r="P1">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>20220910</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>20220910</v>
       </c>
-      <c r="F3" s="1">
+      <c r="H3" s="1">
         <v>0.60512731481481474</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>858.08</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>7880.77</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>14</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>20220910</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>20220910</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <v>0.7099537037037037</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>22</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>7858.77</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>16</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>17</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>18</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>20220913</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>20220913</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
         <v>0.34599537037037037</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>3036.76</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>4822.01</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>19</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>20</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>21</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>20220915</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>20220915</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>0.87108796296296298</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>10</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>4812.01</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>11</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>16</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>17</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>18</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A27:B27">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="B27:D27">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0600860-9271-F244-874B-A7936DC2968D}">
+  <dimension ref="A1:Y16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="7" max="7" width="6.83203125" customWidth="1"/>
+    <col min="8" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.5" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" customWidth="1"/>
+    <col min="18" max="19" width="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="17">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>2</v>
+      </c>
+      <c r="K1">
+        <v>3</v>
+      </c>
+      <c r="L1">
+        <v>4</v>
+      </c>
+      <c r="M1">
+        <v>5</v>
+      </c>
+      <c r="N1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="17">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="17">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>20220912</v>
+      </c>
+      <c r="I3" s="2">
+        <v>20220912</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="2">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="17">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>20220912</v>
+      </c>
+      <c r="I4" s="2">
+        <v>20220913</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="2">
+        <v>106.03</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>20220912</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>25</v>
+      </c>
+      <c r="U4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="17">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>20220912</v>
+      </c>
+      <c r="I5" s="2">
+        <v>20220912</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="2">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>20220912</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>106.03</v>
+      </c>
+      <c r="U5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" t="s">
+        <v>50</v>
+      </c>
+      <c r="W5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="17">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>20220912</v>
+      </c>
+      <c r="I6" s="2">
+        <v>20220912</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="2">
+        <v>-79</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>20220912</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="V6" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" t="s">
+        <v>50</v>
+      </c>
+      <c r="X6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="17">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>20220912</v>
+      </c>
+      <c r="I7" s="2">
+        <v>20220912</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="2">
+        <v>-79</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>20220912</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>79</v>
+      </c>
+      <c r="V7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W7" t="s">
+        <v>50</v>
+      </c>
+      <c r="X7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="17">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>20220911</v>
+      </c>
+      <c r="I8" s="2">
+        <v>20220911</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="2">
+        <v>134</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>20220912</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>79</v>
+      </c>
+      <c r="V8" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8" t="s">
+        <v>50</v>
+      </c>
+      <c r="X8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="17">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2">
+        <v>20220910</v>
+      </c>
+      <c r="I9" s="2">
+        <v>20220910</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>20220911</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>134</v>
+      </c>
+      <c r="U9" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9" t="s">
+        <v>50</v>
+      </c>
+      <c r="W9" t="s">
+        <v>46</v>
+      </c>
+      <c r="X9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="17">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2">
+        <v>20220910</v>
+      </c>
+      <c r="I10" s="2">
+        <v>20220910</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10">
+        <v>20220910</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>13.6</v>
+      </c>
+      <c r="U10" t="s">
+        <v>16</v>
+      </c>
+      <c r="V10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W10" t="s">
+        <v>47</v>
+      </c>
+      <c r="X10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="17">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2">
+        <v>20220910</v>
+      </c>
+      <c r="I11" s="2">
+        <v>20220910</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="2">
+        <v>79</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+      <c r="R11">
+        <v>20220910</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>16.8</v>
+      </c>
+      <c r="U11" t="s">
+        <v>16</v>
+      </c>
+      <c r="V11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W11" t="s">
+        <v>48</v>
+      </c>
+      <c r="X11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="17">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2">
+        <v>9</v>
+      </c>
+      <c r="H12" s="2">
+        <v>20220910</v>
+      </c>
+      <c r="I12" s="2">
+        <v>20220910</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="2">
+        <v>275.3</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q12">
+        <v>8</v>
+      </c>
+      <c r="R12">
+        <v>20220910</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>79</v>
+      </c>
+      <c r="U12" t="s">
+        <v>16</v>
+      </c>
+      <c r="V12" t="s">
+        <v>50</v>
+      </c>
+      <c r="W12" t="s">
+        <v>46</v>
+      </c>
+      <c r="X12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13">
+        <v>9</v>
+      </c>
+      <c r="R13">
+        <v>20220910</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>275.3</v>
+      </c>
+      <c r="U13" t="s">
+        <v>16</v>
+      </c>
+      <c r="V13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W13" t="s">
+        <v>48</v>
+      </c>
+      <c r="X13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/表格转换分析.xlsx
+++ b/表格转换分析.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanyi/Desktop/Python/Financial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED05738-AC73-6842-B13E-DB4DB01C5D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCB55E2-A0A5-43BF-BC87-098327637078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23800" windowHeight="19460" activeTab="1" xr2:uid="{75F62985-7FCA-E342-AA8F-2E9828DD4D0C}"/>
+    <workbookView xWindow="3490" yWindow="3590" windowWidth="30880" windowHeight="16060" xr2:uid="{75F62985-7FCA-E342-AA8F-2E9828DD4D0C}"/>
   </bookViews>
   <sheets>
     <sheet name="储蓄卡账单" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="53">
   <si>
     <t>记账日</t>
   </si>
@@ -189,13 +189,19 @@
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>来源</t>
+  </si>
+  <si>
+    <t>建设银行储蓄卡</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -234,7 +240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,6 +249,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -270,10 +279,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,21 +578,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B29D878-31B3-B14E-98DA-1D1EA7AE13C1}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="B1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.5" customWidth="1"/>
-    <col min="15" max="15" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.4609375" customWidth="1"/>
+    <col min="15" max="15" width="27.4609375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.23046875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.61328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.23046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.61328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.3046875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.3828125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0</v>
       </c>
@@ -597,6 +611,9 @@
       <c r="C1">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
       <c r="F1">
         <v>0</v>
       </c>
@@ -631,7 +648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -641,6 +658,9 @@
       <c r="C2">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
@@ -674,8 +694,32 @@
       <c r="P2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -685,6 +729,9 @@
       <c r="C3">
         <v>3</v>
       </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
       <c r="E3">
         <v>0</v>
       </c>
@@ -718,8 +765,38 @@
       <c r="P3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3">
+        <v>44814</v>
+      </c>
+      <c r="U3" s="3">
+        <v>44822</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0.60512731481481474</v>
+      </c>
+      <c r="W3">
+        <v>858.08</v>
+      </c>
+      <c r="X3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -729,6 +806,9 @@
       <c r="C4">
         <v>4</v>
       </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
       <c r="E4">
         <v>1</v>
       </c>
@@ -762,8 +842,38 @@
       <c r="P4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
+        <v>44814</v>
+      </c>
+      <c r="U4" s="3">
+        <v>44822</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.7099537037037037</v>
+      </c>
+      <c r="W4">
+        <v>22</v>
+      </c>
+      <c r="X4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -773,6 +883,9 @@
       <c r="C5">
         <v>7</v>
       </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
       <c r="E5">
         <v>2</v>
       </c>
@@ -806,8 +919,38 @@
       <c r="P5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5" s="3">
+        <v>44817</v>
+      </c>
+      <c r="U5" s="3">
+        <v>44822</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0.34599537037037037</v>
+      </c>
+      <c r="W5">
+        <v>3036.76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -817,6 +960,9 @@
       <c r="C6">
         <v>9</v>
       </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -850,8 +996,38 @@
       <c r="P6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6" s="3">
+        <v>44819</v>
+      </c>
+      <c r="U6" s="3">
+        <v>44822</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.87108796296296298</v>
+      </c>
+      <c r="W6">
+        <v>10</v>
+      </c>
+      <c r="X6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -861,8 +1037,11 @@
       <c r="C7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -870,7 +1049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -878,47 +1057,191 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="U10" t="s">
+        <v>23</v>
+      </c>
+      <c r="V10" t="s">
+        <v>2</v>
+      </c>
+      <c r="W10" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3">
+        <v>44814</v>
+      </c>
+      <c r="V11" s="3">
+        <v>44822</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0.60512731481481474</v>
+      </c>
+      <c r="X11">
+        <v>858.08</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12" s="3">
+        <v>44814</v>
+      </c>
+      <c r="V12" s="3">
+        <v>44822</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0.7099537037037037</v>
+      </c>
+      <c r="X12">
+        <v>22</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13" s="3">
+        <v>44817</v>
+      </c>
+      <c r="V13" s="3">
+        <v>44822</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0.34599537037037037</v>
+      </c>
+      <c r="X13">
+        <v>3036.76</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3">
+        <v>44819</v>
+      </c>
+      <c r="V14" s="3">
+        <v>44822</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0.87108796296296298</v>
+      </c>
+      <c r="X14">
+        <v>10</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -926,7 +1249,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -948,28 +1271,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0600860-9271-F244-874B-A7936DC2968D}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="6.83203125" customWidth="1"/>
-    <col min="8" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.5" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="6.84375" customWidth="1"/>
+    <col min="8" max="9" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.4609375" customWidth="1"/>
+    <col min="17" max="17" width="9.15234375" customWidth="1"/>
     <col min="18" max="19" width="10" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="35.3046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="33.15234375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="17">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1004,7 +1327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="17">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1034,7 +1357,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="17">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1096,7 +1419,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="17">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1153,7 +1476,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="17">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1215,7 +1538,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="17">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1274,7 +1597,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="17">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1339,7 +1662,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="17">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1398,7 +1721,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="17">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1454,7 +1777,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="17">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1510,7 +1833,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="17">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1566,7 +1889,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="17">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1622,7 +1945,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1654,7 +1977,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1662,7 +1985,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1670,7 +1993,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
